--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2068.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2068.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.159009395646308</v>
+        <v>1.305608987808228</v>
       </c>
       <c r="B1">
-        <v>3.044371112959029</v>
+        <v>3.74807071685791</v>
       </c>
       <c r="C1">
-        <v>4.380306481910148</v>
+        <v>3.922101020812988</v>
       </c>
       <c r="D1">
-        <v>3.064839569537016</v>
+        <v>3.004763126373291</v>
       </c>
       <c r="E1">
-        <v>1.204807595141824</v>
+        <v>1.047449350357056</v>
       </c>
     </row>
   </sheetData>
